--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/105.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/105.xlsx
@@ -479,13 +479,13 @@
         <v>-0.122651039020462</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.752013811454573</v>
+        <v>-1.74019922393009</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07731199833064675</v>
+        <v>0.08013736265338149</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2685440751545108</v>
+        <v>-0.2704313240809503</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1298075426035211</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.752720546040037</v>
+        <v>-1.737254234154137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06507399966253391</v>
+        <v>0.07483291821459817</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2354314348997082</v>
+        <v>-0.2400338668103914</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1440578368591999</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.807608166818913</v>
+        <v>-1.787212027045099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09983778597558091</v>
+        <v>0.1065541255661709</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2649883659594925</v>
+        <v>-0.2678546547793811</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.162279661098546</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.977551863307506</v>
+        <v>-1.95218024909126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1608467671171956</v>
+        <v>0.1666517496365525</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.292991740146553</v>
+        <v>-0.2953165663887142</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1808839066722345</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.964905406677416</v>
+        <v>-1.942688913789817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3145182539297817</v>
+        <v>0.3148047254098584</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3119728367303181</v>
+        <v>-0.3149020863150586</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1960237969701557</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.854953874978078</v>
+        <v>-1.838835919175958</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4249703237096936</v>
+        <v>0.4237551809480494</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3206708663946257</v>
+        <v>-0.3229972666559081</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2059964913876361</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.587104615125461</v>
+        <v>-1.57285974207769</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5969413568265215</v>
+        <v>0.5911694287087119</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3492723678477804</v>
+        <v>-0.3490771894767392</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.207005322468323</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.133852429984397</v>
+        <v>-1.126658375590492</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6818974648796048</v>
+        <v>0.6715876396350854</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3244028657312296</v>
+        <v>-0.3228052363231094</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1929773041957313</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5674392881556622</v>
+        <v>-0.5628588925126773</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6476294945897676</v>
+        <v>0.6389739634417351</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3067140388460525</v>
+        <v>-0.3049479893919531</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1565661609599011</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08181818679461017</v>
+        <v>-0.08865415183841906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6047783980314776</v>
+        <v>0.5960929605201405</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2584719267973077</v>
+        <v>-0.2552215773118218</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08831343158777767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5742534452120934</v>
+        <v>0.5634005833707252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5539281362987376</v>
+        <v>0.5362534755856522</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1858718688464348</v>
+        <v>-0.1772730023867691</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.0167380652695709</v>
       </c>
       <c r="E13" t="n">
-        <v>1.192482509504486</v>
+        <v>1.179109643049915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3733566627031227</v>
+        <v>0.3610871836525839</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07439826065679873</v>
+        <v>-0.07018933352644069</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.151139221374703</v>
       </c>
       <c r="E14" t="n">
-        <v>1.788209396438764</v>
+        <v>1.778691302812258</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1151104935095615</v>
+        <v>0.1066265304457508</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04585680021057381</v>
+        <v>0.0499429538494704</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3039318839930962</v>
       </c>
       <c r="E15" t="n">
-        <v>2.450235542781348</v>
+        <v>2.44595421077141</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1154439572829568</v>
+        <v>-0.1306741663006622</v>
       </c>
       <c r="G15" t="n">
-        <v>0.183693654662875</v>
+        <v>0.190540637840533</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4674961607255562</v>
       </c>
       <c r="E16" t="n">
-        <v>2.946799225073682</v>
+        <v>2.943720443672418</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4627134999390423</v>
+        <v>-0.4674686117044917</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3561132832292737</v>
+        <v>0.3593557626191531</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6380707122039985</v>
       </c>
       <c r="E17" t="n">
-        <v>3.46540389712159</v>
+        <v>3.465022984494235</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7777864814689223</v>
+        <v>-0.7823432668250878</v>
       </c>
       <c r="G17" t="n">
-        <v>0.522217947081014</v>
+        <v>0.5267589922459665</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8094349239643535</v>
       </c>
       <c r="E18" t="n">
-        <v>3.94662876307685</v>
+        <v>3.943357951342787</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.112411141514039</v>
+        <v>-1.108924689160358</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6455832697320767</v>
+        <v>0.6505807804422064</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9707030752642707</v>
       </c>
       <c r="E19" t="n">
-        <v>4.209087007439011</v>
+        <v>4.206790513541034</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.491724565441564</v>
+        <v>-1.479733687775495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8577091046524065</v>
+        <v>0.8598088461602216</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.114298638055331</v>
       </c>
       <c r="E20" t="n">
-        <v>4.46818944303456</v>
+        <v>4.471126562714907</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.844695992364561</v>
+        <v>-1.834946517927225</v>
       </c>
       <c r="G20" t="n">
-        <v>1.044579802771467</v>
+        <v>1.046563066864306</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.236978986455945</v>
       </c>
       <c r="E21" t="n">
-        <v>4.680395552930077</v>
+        <v>4.685352139143053</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.223035098456001</v>
+        <v>-2.209956573577113</v>
       </c>
       <c r="G21" t="n">
-        <v>1.258495297432715</v>
+        <v>1.261218350512566</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.338821362657404</v>
       </c>
       <c r="E22" t="n">
-        <v>4.764715757258154</v>
+        <v>4.770786749009011</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.519647983731266</v>
+        <v>-2.507661041113001</v>
       </c>
       <c r="G22" t="n">
-        <v>1.416183681042861</v>
+        <v>1.418195277479883</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.41909845871949</v>
       </c>
       <c r="E23" t="n">
-        <v>4.832066461439489</v>
+        <v>4.843555227005863</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.723323696998893</v>
+        <v>-2.711469758996378</v>
       </c>
       <c r="G23" t="n">
-        <v>1.538478670691439</v>
+        <v>1.545270563199852</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.475822076881935</v>
       </c>
       <c r="E24" t="n">
-        <v>4.860216219404831</v>
+        <v>4.875477908804962</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.847883700163024</v>
+        <v>-2.832211978781793</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59546603297813</v>
+        <v>1.598932023083235</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.508597461236831</v>
       </c>
       <c r="E25" t="n">
-        <v>4.925794578055581</v>
+        <v>4.943311836856537</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.039943152315451</v>
+        <v>-3.020260043203586</v>
       </c>
       <c r="G25" t="n">
-        <v>1.698971956375742</v>
+        <v>1.701595846250951</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.517332052402419</v>
       </c>
       <c r="E26" t="n">
-        <v>5.016887786662616</v>
+        <v>5.041977651456149</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.16528780401155</v>
+        <v>-3.147883874587328</v>
       </c>
       <c r="G26" t="n">
-        <v>1.730644369134555</v>
+        <v>1.733450845227834</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.504262947674152</v>
       </c>
       <c r="E27" t="n">
-        <v>4.972158885292615</v>
+        <v>4.998767678538202</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.217795507879019</v>
+        <v>-3.19736867473234</v>
       </c>
       <c r="G27" t="n">
-        <v>1.751482808281455</v>
+        <v>1.755677569239721</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.473929759918196</v>
       </c>
       <c r="E28" t="n">
-        <v>4.984107264442408</v>
+        <v>5.012763856564808</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.234554089463508</v>
+        <v>-3.214584508871566</v>
       </c>
       <c r="G28" t="n">
-        <v>1.774800327544403</v>
+        <v>1.777175522398446</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.430229161638386</v>
       </c>
       <c r="E29" t="n">
-        <v>4.960701600108667</v>
+        <v>4.992811590183201</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.148949485532448</v>
+        <v>-3.132264882846661</v>
       </c>
       <c r="G29" t="n">
-        <v>1.709431313436786</v>
+        <v>1.714816032850755</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.376799369446453</v>
       </c>
       <c r="E30" t="n">
-        <v>4.876579722189873</v>
+        <v>4.912585409589626</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.112119012113133</v>
+        <v>-3.096832925416622</v>
       </c>
       <c r="G30" t="n">
-        <v>1.657625622097416</v>
+        <v>1.666629011471256</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.315414647821668</v>
       </c>
       <c r="E31" t="n">
-        <v>4.728924136458898</v>
+        <v>4.765871087293189</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.053064962720174</v>
+        <v>-3.037105195839746</v>
       </c>
       <c r="G31" t="n">
-        <v>1.597612995059585</v>
+        <v>1.608969543019769</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.247653034131976</v>
       </c>
       <c r="E32" t="n">
-        <v>4.702200439817455</v>
+        <v>4.736364524845286</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.937591771943314</v>
+        <v>-2.921560387192866</v>
       </c>
       <c r="G32" t="n">
-        <v>1.551163690790001</v>
+        <v>1.555569370310522</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.17541284076251</v>
       </c>
       <c r="E33" t="n">
-        <v>4.539264276456893</v>
+        <v>4.573458267848029</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.85541852969669</v>
+        <v>-2.839583110326844</v>
       </c>
       <c r="G33" t="n">
-        <v>1.474774968814158</v>
+        <v>1.487016115520513</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.099306035633862</v>
       </c>
       <c r="E34" t="n">
-        <v>4.405327841387175</v>
+        <v>4.439372300961788</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.76821550934795</v>
+        <v>-2.757571205040154</v>
       </c>
       <c r="G34" t="n">
-        <v>1.414595495749468</v>
+        <v>1.428346126793151</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.021028978597122</v>
       </c>
       <c r="E35" t="n">
-        <v>4.196471244181787</v>
+        <v>4.230893468345511</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.745360751706664</v>
+        <v>-2.735933164179633</v>
       </c>
       <c r="G35" t="n">
-        <v>1.332891311200992</v>
+        <v>1.347924767828535</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9417055179935231</v>
       </c>
       <c r="E36" t="n">
-        <v>3.954439045956744</v>
+        <v>3.98175929584516</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.66828260935569</v>
+        <v>-2.662941962477117</v>
       </c>
       <c r="G36" t="n">
-        <v>1.33343277377872</v>
+        <v>1.343475015772618</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8627393899157833</v>
       </c>
       <c r="E37" t="n">
-        <v>3.734885414802996</v>
+        <v>3.764851590834318</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.587254466019813</v>
+        <v>-2.581190557355002</v>
       </c>
       <c r="G37" t="n">
-        <v>1.224216309009029</v>
+        <v>1.232102144806746</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7855262536542712</v>
       </c>
       <c r="E38" t="n">
-        <v>3.520455215889082</v>
+        <v>3.553508043417275</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.490443632954654</v>
+        <v>-2.483996450633806</v>
       </c>
       <c r="G38" t="n">
-        <v>1.141167912130962</v>
+        <v>1.155090111258867</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7102166374454422</v>
       </c>
       <c r="E39" t="n">
-        <v>3.270737082294727</v>
+        <v>3.304992460431595</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.444098213947076</v>
+        <v>-2.440718794893643</v>
       </c>
       <c r="G39" t="n">
-        <v>1.069206905943337</v>
+        <v>1.08773783305841</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6382187406083155</v>
       </c>
       <c r="E40" t="n">
-        <v>3.062074089441259</v>
+        <v>3.098684200183592</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.394858960784987</v>
+        <v>-2.38993700299268</v>
       </c>
       <c r="G40" t="n">
-        <v>1.011333370891354</v>
+        <v>1.026879957752441</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.569245593329688</v>
       </c>
       <c r="E41" t="n">
-        <v>2.84192547905966</v>
+        <v>2.877395999958171</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.378149173793259</v>
+        <v>-2.375666158629407</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9946566383011728</v>
+        <v>1.017344549915601</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5022519009201893</v>
       </c>
       <c r="E42" t="n">
-        <v>2.580073232059199</v>
+        <v>2.621427436433132</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.348446645964755</v>
+        <v>-2.344412434956861</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9330164754919166</v>
+        <v>0.9553250484981112</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4382762120705948</v>
       </c>
       <c r="E43" t="n">
-        <v>2.410556094752479</v>
+        <v>2.449081786765434</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.347777687838202</v>
+        <v>-2.345975435944312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8860194125681207</v>
+        <v>0.9067948909501684</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3774003302435193</v>
       </c>
       <c r="E44" t="n">
-        <v>2.204345423689997</v>
+        <v>2.245825549593634</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.296439480177858</v>
+        <v>-2.294543574146252</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7862470625262339</v>
+        <v>0.8064889484261608</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3215484465060554</v>
       </c>
       <c r="E45" t="n">
-        <v>2.064474936532975</v>
+        <v>2.10562609244026</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.221015631923372</v>
+        <v>-2.222443267266392</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7273488410262835</v>
+        <v>0.7458703240266287</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2714414481836434</v>
       </c>
       <c r="E46" t="n">
-        <v>1.916183447076995</v>
+        <v>1.958263274265847</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.151914618479151</v>
+        <v>-2.152552096223277</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6723888153678274</v>
+        <v>0.6906899356911905</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2270933258951459</v>
       </c>
       <c r="E47" t="n">
-        <v>1.763272211499997</v>
+        <v>1.799836675687812</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.104933295746568</v>
+        <v>-2.106867765246646</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6306206439649923</v>
+        <v>0.6489375044795684</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.187935626823834</v>
       </c>
       <c r="E48" t="n">
-        <v>1.6339114500159</v>
+        <v>1.671157464483238</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.94543872519473</v>
+        <v>-1.95044961506739</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5286761475357107</v>
+        <v>0.5495366229503087</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1521431116722495</v>
       </c>
       <c r="E49" t="n">
-        <v>1.534817502215294</v>
+        <v>1.571397706594322</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.87171717861993</v>
+        <v>-1.874872299948577</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4649409652760033</v>
+        <v>0.4847468478793298</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1189846701134408</v>
       </c>
       <c r="E50" t="n">
-        <v>1.475889374352038</v>
+        <v>1.508285835906649</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.757980917943424</v>
+        <v>-1.763861453380604</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4067384602276677</v>
+        <v>0.4294421120333088</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08764905881714989</v>
       </c>
       <c r="E51" t="n">
-        <v>1.353232360305561</v>
+        <v>1.386596843619772</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.699954703036674</v>
+        <v>-1.703678832277672</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3574244411573171</v>
+        <v>0.3795929264617161</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05803619145435536</v>
       </c>
       <c r="E52" t="n">
-        <v>1.234126333396738</v>
+        <v>1.270810423037772</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.648560617697525</v>
+        <v>-1.652693991910061</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3146158431153023</v>
+        <v>0.3347270854281613</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03124746108176813</v>
       </c>
       <c r="E53" t="n">
-        <v>1.197596497629592</v>
+        <v>1.235672020173855</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.622889152838671</v>
+        <v>-1.624482060189428</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2792208751346138</v>
+        <v>0.29975238055286</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.008586960788395846</v>
       </c>
       <c r="E54" t="n">
-        <v>1.103841622688438</v>
+        <v>1.139285385261886</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.495214165833487</v>
+        <v>-1.497293445092726</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2460909206694769</v>
+        <v>0.2648815609395645</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.009430230147873489</v>
       </c>
       <c r="E55" t="n">
-        <v>1.046542604615729</v>
+        <v>1.078937492151218</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.468269319505501</v>
+        <v>-1.471877758341083</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2158020707182878</v>
+        <v>0.2326787037368737</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02287696741436492</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9746178008678937</v>
+        <v>1.00704574280493</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.470927837801378</v>
+        <v>-1.474178974296425</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2202833031566308</v>
+        <v>0.2347989074932658</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03318506785129188</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9397438332163557</v>
+        <v>0.971808176736372</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.475370506771249</v>
+        <v>-1.475156440170753</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1781956058721717</v>
+        <v>0.1923240015049667</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04159481723149109</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9021468124849675</v>
+        <v>0.935275192930983</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.47504389780358</v>
+        <v>-1.477737831529686</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1658773322288725</v>
+        <v>0.179212422224532</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04927185209649199</v>
       </c>
       <c r="E59" t="n">
-        <v>0.870636523695649</v>
+        <v>0.9045172852816463</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.484056731292147</v>
+        <v>-1.48420547609911</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1539195089643512</v>
+        <v>0.1660016797394553</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.05640016667684741</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8598623628103458</v>
+        <v>0.8893893875068254</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522379374838455</v>
+        <v>-1.523630720039889</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1460006187650875</v>
+        <v>0.155776851527486</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06344416275383644</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8981173235344377</v>
+        <v>0.9263442084367229</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.516791606957838</v>
+        <v>-1.520157646848739</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1314755703137247</v>
+        <v>0.1333691153166495</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.0708031733727371</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8720547149239409</v>
+        <v>0.9002044728892824</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.54576536393318</v>
+        <v>-1.545851147975291</v>
       </c>
       <c r="G62" t="n">
-        <v>0.152918432803204</v>
+        <v>0.1579348317427893</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.07893251636055035</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8353092385371764</v>
+        <v>0.8616425784365369</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.593291297281733</v>
+        <v>-1.594311261672336</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1312394674455296</v>
+        <v>0.1353161769696984</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.08817660201942311</v>
       </c>
       <c r="E64" t="n">
-        <v>0.810526307472297</v>
+        <v>0.8368927017732049</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.584261149582831</v>
+        <v>-1.586518293002776</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1224800510354913</v>
+        <v>0.128152815948659</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.09852662538590837</v>
       </c>
       <c r="E65" t="n">
-        <v>0.782116836351941</v>
+        <v>0.8075828917154647</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.651101871568865</v>
+        <v>-1.648657419873485</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1016982765769583</v>
+        <v>0.1079329663164303</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1102488650156854</v>
       </c>
       <c r="E66" t="n">
-        <v>0.730440214580518</v>
+        <v>0.7530462772006385</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.670419021235028</v>
+        <v>-1.670939234554617</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08687259047342713</v>
+        <v>0.09309311404080746</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1228758750698756</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7243660747914187</v>
+        <v>0.7513573546834829</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.741152292508038</v>
+        <v>-1.741931431973082</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07896786644625509</v>
+        <v>0.08437777016616554</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1350048623533422</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7180637022297307</v>
+        <v>0.7409546623108066</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.771195595476304</v>
+        <v>-1.773943832862095</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0847397945640647</v>
+        <v>0.09355115360510595</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.144785211359643</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7101196277245262</v>
+        <v>0.7288252709620635</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.820670951506588</v>
+        <v>-1.817712582568103</v>
       </c>
       <c r="G69" t="n">
-        <v>0.09905392445317315</v>
+        <v>0.1073852076622177</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1509330208515777</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6441131358727819</v>
+        <v>0.6677155525966857</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.906307822829634</v>
+        <v>-1.903103906908226</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08915177016107054</v>
+        <v>0.09872495445682132</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1525464304617745</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5737875355521884</v>
+        <v>0.6016256377315123</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.972891192689335</v>
+        <v>-1.969326826389149</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07846260630831756</v>
+        <v>0.08910140154918891</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1497927372306869</v>
       </c>
       <c r="E72" t="n">
-        <v>0.480994386294149</v>
+        <v>0.5124905089113757</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.011859184075376</v>
+        <v>-2.003616045937124</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0838111232824973</v>
+        <v>0.09450973124997808</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1433008575598786</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4289337038571287</v>
+        <v>0.4584717466874574</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.106719020439683</v>
+        <v>-2.099525753055339</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07499346816497085</v>
+        <v>0.08476655288912681</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1339898516136013</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3260621101654009</v>
+        <v>0.3622488097641038</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.126111723023668</v>
+        <v>-2.120671125930893</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04824458721758695</v>
+        <v>0.05958224694831581</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1224679236061611</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2502101287099208</v>
+        <v>0.2885374943135925</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.150542860814937</v>
+        <v>-2.147469588480597</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05030655226649085</v>
+        <v>0.06013315364077105</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1092271761994911</v>
       </c>
       <c r="E76" t="n">
-        <v>0.219551384265226</v>
+        <v>0.2587696446915539</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.210209990655643</v>
+        <v>-2.20720597516264</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03810633005728923</v>
+        <v>0.04820995879691834</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.09365294245200295</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1163681347874807</v>
+        <v>0.1595324611509095</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.204763884495943</v>
+        <v>-2.203152088915731</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03142776692561041</v>
+        <v>0.03637648304297977</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.0753023456140067</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1050918618024826</v>
+        <v>0.1466412445474569</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.200253532703855</v>
+        <v>-2.20246109452148</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05920763039744625</v>
+        <v>0.06363692020478638</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05400549851694933</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0545233494924554</v>
+        <v>0.09934826602885639</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.214389011422696</v>
+        <v>-2.215511287056183</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05271165348383831</v>
+        <v>0.05829784734533445</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.02981129587436537</v>
       </c>
       <c r="E80" t="n">
-        <v>0.08438249222352945</v>
+        <v>0.1307908719959589</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.259019536597616</v>
+        <v>-2.257244043028789</v>
       </c>
       <c r="G80" t="n">
-        <v>0.09689751825699122</v>
+        <v>0.1028079600574753</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.003152886753107889</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09743740681559736</v>
+        <v>0.1405466425097806</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.250974724868648</v>
+        <v>-2.249333022925132</v>
       </c>
       <c r="G81" t="n">
-        <v>0.09652762376348556</v>
+        <v>0.1037681117214687</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.02564154061209274</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1352957147211215</v>
+        <v>0.1736561347263406</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.209196322341525</v>
+        <v>-2.205624872955294</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07399554004206621</v>
+        <v>0.08143750244757586</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.05614389781348123</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2523130182559785</v>
+        <v>0.2794018873335634</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.165488959381248</v>
+        <v>-2.162758823215352</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09651503161051515</v>
+        <v>0.1029480477592711</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.08790548016654266</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3393216472432379</v>
+        <v>0.3717684774097303</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.073652026739398</v>
+        <v>-2.076682013547902</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1352784005107872</v>
+        <v>0.1421458459370221</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1207879128549789</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4762140902227588</v>
+        <v>0.5024372487836283</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.926647297915081</v>
+        <v>-1.930055049312697</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1177579936715892</v>
+        <v>0.1215702679833795</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1545967274345806</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6640512360822977</v>
+        <v>0.6800826208327452</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.791106937360758</v>
+        <v>-1.798026325417996</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1909766411371333</v>
+        <v>0.193853948090871</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1885458852703882</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9040198952393153</v>
+        <v>0.9170559216019276</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.57195232005426</v>
+        <v>-1.579652421595663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1958655445278933</v>
+        <v>0.1994983806598553</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2210641303636968</v>
       </c>
       <c r="E88" t="n">
-        <v>1.071637191466626</v>
+        <v>1.079442752289156</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.403618845126758</v>
+        <v>-1.409453734009419</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2141745349468629</v>
+        <v>0.2188084472399721</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2499117948772883</v>
       </c>
       <c r="E89" t="n">
-        <v>1.256408148077871</v>
+        <v>1.256480552957451</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.199307228134125</v>
+        <v>-1.202141249562027</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2496765362277999</v>
+        <v>0.2525333809329606</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2732743568551592</v>
       </c>
       <c r="E90" t="n">
-        <v>1.362884245557377</v>
+        <v>1.358022100491679</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.933874087632705</v>
+        <v>-0.9384025406446871</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2365303285266965</v>
+        <v>0.2365917152724273</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.288955010949409</v>
       </c>
       <c r="E91" t="n">
-        <v>1.505534450482616</v>
+        <v>1.495600815808087</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6273417338550026</v>
+        <v>-0.6312216909890087</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1605382593694206</v>
+        <v>0.1642104459794151</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2955584109162446</v>
       </c>
       <c r="E92" t="n">
-        <v>1.526657787090471</v>
+        <v>1.515861589937469</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4193571432428149</v>
+        <v>-0.4262324587646563</v>
       </c>
       <c r="G92" t="n">
-        <v>0.146636522490093</v>
+        <v>0.1453049023134726</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2911840062462386</v>
       </c>
       <c r="E93" t="n">
-        <v>1.570856244016594</v>
+        <v>1.555964449109968</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2126050096026056</v>
+        <v>-0.2209866614235318</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1217591502779356</v>
+        <v>0.1200371733592326</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2754884096712471</v>
       </c>
       <c r="E94" t="n">
-        <v>1.530874584316436</v>
+        <v>1.518299745556364</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.01657666823581797</v>
+        <v>-0.02399502035450811</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1133192597495213</v>
+        <v>0.1134341631453762</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2493474457045461</v>
       </c>
       <c r="E95" t="n">
-        <v>1.539904732015338</v>
+        <v>1.528546610036032</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1372805528330817</v>
+        <v>0.1254927236336608</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05206630564410503</v>
+        <v>0.05174835378160229</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2141066558387329</v>
       </c>
       <c r="E96" t="n">
-        <v>1.471852015305902</v>
+        <v>1.463028064111891</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2490296143689453</v>
+        <v>0.2329336948345244</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.009953195773384674</v>
+        <v>-0.01078112983118884</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1742865051885517</v>
       </c>
       <c r="E97" t="n">
-        <v>1.422276709061416</v>
+        <v>1.415854711046509</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2718040970350449</v>
+        <v>0.256487316965668</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03283785977797538</v>
+        <v>-0.03230898935321834</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.132947085217141</v>
       </c>
       <c r="E98" t="n">
-        <v>1.287493451704438</v>
+        <v>1.283111382470737</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3219712344691404</v>
+        <v>0.3089556703551051</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08763418744781622</v>
+        <v>-0.08692745286235221</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.09572380545713828</v>
       </c>
       <c r="E99" t="n">
-        <v>1.189993985273709</v>
+        <v>1.187776192331797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3430190181591732</v>
+        <v>0.3309258292502201</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09179746802365654</v>
+        <v>-0.09062167574004493</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.05991050644213974</v>
       </c>
       <c r="E100" t="n">
-        <v>1.082235062210343</v>
+        <v>1.078358253114579</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3630484114777245</v>
+        <v>0.3514998331847414</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1418245177559563</v>
+        <v>-0.1409477891053918</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.02557227029003628</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9754378648300914</v>
+        <v>0.9727588842856376</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3353157685795277</v>
+        <v>0.3227503739341843</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1494899908766907</v>
+        <v>-0.1471840528639851</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02188892733845401</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9292262374478245</v>
+        <v>0.9240256782710471</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3046979486319867</v>
+        <v>0.2932689957922224</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1762845183785922</v>
+        <v>-0.1729460238223135</v>
       </c>
     </row>
   </sheetData>
